--- a/data/trans_dic/P20-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06108760499956326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05946754550718838</v>
+        <v>0.05946754550718837</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06238722796629752</v>
@@ -685,7 +685,7 @@
         <v>0.09601280838860415</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07443091813039845</v>
+        <v>0.07443091813039844</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05487171723597552</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03226582460486727</v>
+        <v>0.03373822490249422</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03003013986446513</v>
+        <v>0.02971105386746048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03951185826523911</v>
+        <v>0.03924643816976509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0437305668571241</v>
+        <v>0.04184201091655967</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03677190625189689</v>
+        <v>0.03848085627425402</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.077420130523151</v>
+        <v>0.07472661598862047</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06882572972031066</v>
+        <v>0.06442485472700363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05475465110528528</v>
+        <v>0.0528981790557549</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04012616679454951</v>
+        <v>0.03996535222344768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0569640451495562</v>
+        <v>0.05598393348497007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05937779573955237</v>
+        <v>0.05977516472101801</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05238740516383388</v>
+        <v>0.05340753030387049</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07276171424207213</v>
+        <v>0.07407571948652451</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07654760902172497</v>
+        <v>0.0764753935275391</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08874866862254138</v>
+        <v>0.08827467600014391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08622734157359115</v>
+        <v>0.08138508720594351</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09077856371249668</v>
+        <v>0.09044065395353729</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1513329518147084</v>
+        <v>0.1524746758111213</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1320467740456843</v>
+        <v>0.1292247758930165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1008159190946851</v>
+        <v>0.09897871530902844</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07318525379112438</v>
+        <v>0.07314550227335233</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09729540501221584</v>
+        <v>0.09844408926115979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09807021944938045</v>
+        <v>0.09928724938468998</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08154778384565999</v>
+        <v>0.08312328390106358</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02412962261762543</v>
+        <v>0.02429287059842714</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02279240257816533</v>
+        <v>0.02298381992238786</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03545328226315359</v>
+        <v>0.03397616850372966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03196613199349749</v>
+        <v>0.03217095412101215</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05350948512760072</v>
+        <v>0.05387367931652</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06846204480852582</v>
+        <v>0.06547774014710288</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06405086539767312</v>
+        <v>0.06382677702195698</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05805553118365336</v>
+        <v>0.05741205673690698</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04399251477243308</v>
+        <v>0.04458794411306494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.049771399641095</v>
+        <v>0.04871114692008148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05572053539784445</v>
+        <v>0.0551562704721067</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05009786388053793</v>
+        <v>0.04877405734626458</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06888720562295071</v>
+        <v>0.06769037014793119</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06316902520929095</v>
+        <v>0.06512638037104874</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08308714302012017</v>
+        <v>0.08469303903261698</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06997676010156488</v>
+        <v>0.07080291397909798</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1112842752371518</v>
+        <v>0.1108737221711779</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1422660371098052</v>
+        <v>0.1365886451056574</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1263741123786336</v>
+        <v>0.1228665888772535</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1065231128015486</v>
+        <v>0.105483101436653</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07944661911781363</v>
+        <v>0.08155796380320893</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08949435178026297</v>
+        <v>0.0877545259909301</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09573933079116276</v>
+        <v>0.09398721898488228</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07954473762448054</v>
+        <v>0.07877574934960258</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06114117008326702</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07831094440860155</v>
+        <v>0.07831094440860153</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09863243774156667</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02538789108316563</v>
+        <v>0.02592164339827703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05824098131154936</v>
+        <v>0.05798378980753867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0435190770216655</v>
+        <v>0.04301457882728788</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05640573290087444</v>
+        <v>0.05363232602028327</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05628198585138577</v>
+        <v>0.060002513688232</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05737977642280899</v>
+        <v>0.05529397313700877</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05497294568535725</v>
+        <v>0.05495820312456026</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06077656851834385</v>
+        <v>0.06022552272841251</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03928830714472893</v>
+        <v>0.03702254750880494</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06466553965259418</v>
+        <v>0.06360142782614296</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05148184804577424</v>
+        <v>0.05129402624180529</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06360496185943273</v>
+        <v>0.06453179049026746</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0578032015843661</v>
+        <v>0.05951216771296802</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1058176429894203</v>
+        <v>0.1042436680586606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08852471721954128</v>
+        <v>0.08723915313970734</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1099683978905473</v>
+        <v>0.1041461835233478</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1497848834184948</v>
+        <v>0.1570210633208974</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1264619388852899</v>
+        <v>0.1275320628175734</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1546040550082368</v>
+        <v>0.1605118719783524</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1515648972708397</v>
+        <v>0.1537677504312926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07304703760246054</v>
+        <v>0.07211711154788454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1045517517692458</v>
+        <v>0.1029858935059552</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09093158024968777</v>
+        <v>0.0928443858329069</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1089643982442472</v>
+        <v>0.1081216763826937</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06617471628752539</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06159757234424251</v>
+        <v>0.06159757234424252</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0357517255580576</v>
+        <v>0.03512907583552372</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05050131608198902</v>
+        <v>0.05010739310413351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0361633047629952</v>
+        <v>0.03580244582361414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04316018430209696</v>
+        <v>0.04239190082607786</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06882957129003033</v>
+        <v>0.06925386306064678</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08506193938656534</v>
+        <v>0.08648663389383138</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0735483719331838</v>
+        <v>0.0742450465451298</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0555909179834846</v>
+        <v>0.0548462530161002</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05026594237538169</v>
+        <v>0.051213322811171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06788533568080371</v>
+        <v>0.06884104979495852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05414346253526917</v>
+        <v>0.05573344218819983</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05244752882359167</v>
+        <v>0.05187228926282755</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05957398727526784</v>
+        <v>0.05882947315922782</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07921330261334536</v>
+        <v>0.07836517906770214</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06072437585973375</v>
+        <v>0.0618673829863909</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07253737150714971</v>
+        <v>0.07328871478495393</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.111517234635123</v>
+        <v>0.1093196554396131</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1284432859391868</v>
+        <v>0.1322465459564864</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1154547397419536</v>
+        <v>0.1153207533346042</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08674054284635774</v>
+        <v>0.08618653986550699</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07221918598465177</v>
+        <v>0.07268212099308419</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09393887467254676</v>
+        <v>0.09403013279143589</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07836553326286684</v>
+        <v>0.0798816777327392</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07303207610999758</v>
+        <v>0.07278889730753668</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03521446537052865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07764564913831486</v>
+        <v>0.07764564913831484</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07200824933791519</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02663439860901609</v>
+        <v>0.02694427321441667</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05100666745661753</v>
+        <v>0.05388141005371706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02301607283013997</v>
+        <v>0.02374136953117877</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05873162397605231</v>
+        <v>0.05832722283243114</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04988297767975682</v>
+        <v>0.05163824732210107</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08308322719517074</v>
+        <v>0.08299928687164938</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04641041967570157</v>
+        <v>0.04694110746667985</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0448747968501216</v>
+        <v>0.04303812209844744</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04574311118279977</v>
+        <v>0.04583936689463455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07555041908020392</v>
+        <v>0.07662363795701252</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03893502971604168</v>
+        <v>0.03972379419519702</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05448724571163154</v>
+        <v>0.05333101434940984</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06714482091503769</v>
+        <v>0.06916399106109551</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1010564343194597</v>
+        <v>0.1061750201815261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05333329075193474</v>
+        <v>0.05404576775002433</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1019127122146785</v>
+        <v>0.1019052621251326</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09842666029138072</v>
+        <v>0.09542434222280073</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1298854612276556</v>
+        <v>0.128611721879508</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08219036523326298</v>
+        <v>0.08439588762915265</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07611213350202702</v>
+        <v>0.07331785497241518</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07751493153088347</v>
+        <v>0.08021765537937457</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1090434390759305</v>
+        <v>0.1105465428792614</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06507686099294163</v>
+        <v>0.06501523670198073</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07995586894200908</v>
+        <v>0.07784378840584683</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06121779302989457</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05198602779393301</v>
+        <v>0.05198602779393302</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05431572075790294</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003012253245400739</v>
+        <v>0.002996912855992088</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01475749346066198</v>
+        <v>0.01474071548335943</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01440787142527376</v>
+        <v>0.01630214200369459</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.004049334334958508</v>
+        <v>0.00421625882459062</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05063835062294778</v>
+        <v>0.05186165712510076</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06195679179294744</v>
+        <v>0.06152829675983405</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04737320286520112</v>
+        <v>0.04768290659677754</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0404281749304807</v>
+        <v>0.03962117083398967</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04367420565400924</v>
+        <v>0.04311258057818136</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05532598946472753</v>
+        <v>0.05459046775987116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04355705223615909</v>
+        <v>0.04392228392116214</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03403301769132544</v>
+        <v>0.03388087800479141</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04195511361693351</v>
+        <v>0.03941382800542632</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05555317791328752</v>
+        <v>0.05367934236940059</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05748017956481387</v>
+        <v>0.05976953700964503</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04430926554696216</v>
+        <v>0.04861563693107863</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.077606929992728</v>
+        <v>0.07798374001662721</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09377365840231416</v>
+        <v>0.09369528031808259</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07866181332733933</v>
+        <v>0.07836484250916771</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06985182262029413</v>
+        <v>0.06957704738453516</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06613891396626718</v>
+        <v>0.06622831111902511</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08076486883283854</v>
+        <v>0.08132408243353244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06913920720668806</v>
+        <v>0.07124734832139035</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05832585568677072</v>
+        <v>0.05903524532601234</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03484803770192401</v>
+        <v>0.03500708484385684</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0531712961025695</v>
+        <v>0.05243852067455085</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04150417618307418</v>
+        <v>0.0415779923848093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05186519743043014</v>
+        <v>0.05125080454665792</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06526287341935698</v>
+        <v>0.06500246268574214</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08503518761105285</v>
+        <v>0.08437127976674377</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06861551414956307</v>
+        <v>0.06903544399932289</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05852816244987229</v>
+        <v>0.05858653267128678</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05221268783721595</v>
+        <v>0.05249375055178152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07122821828216079</v>
+        <v>0.07149163362544779</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05753278492299781</v>
+        <v>0.05699887179576882</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05705955240641827</v>
+        <v>0.0566131429325296</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04925598060928663</v>
+        <v>0.0489804736472993</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06947393441611878</v>
+        <v>0.06960934605635445</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05647522507863071</v>
+        <v>0.05660024845580784</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06799453384693291</v>
+        <v>0.06895834992091651</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08319005469549634</v>
+        <v>0.08197183177520832</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1062403698621934</v>
+        <v>0.105299140008907</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08712084059078841</v>
+        <v>0.08767999077456516</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07323666273613412</v>
+        <v>0.07409134214600828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06337667737405973</v>
+        <v>0.064123241705327</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0845504635411518</v>
+        <v>0.08447311565315571</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06899816707089713</v>
+        <v>0.06979391307868585</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06801007792867513</v>
+        <v>0.06836812537563607</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15287</v>
+        <v>15984</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13130</v>
+        <v>12990</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16954</v>
+        <v>16840</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24079</v>
+        <v>23039</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11277</v>
+        <v>11801</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24345</v>
+        <v>23498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23886</v>
+        <v>22359</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26743</v>
+        <v>25836</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31317</v>
+        <v>31191</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>42818</v>
+        <v>42081</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>46086</v>
+        <v>46394</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>54432</v>
+        <v>55492</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34473</v>
+        <v>35095</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33467</v>
+        <v>33436</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38081</v>
+        <v>37878</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47478</v>
+        <v>44812</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>27840</v>
+        <v>27736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47587</v>
+        <v>47946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45827</v>
+        <v>44848</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49240</v>
+        <v>48342</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>57118</v>
+        <v>57087</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>73134</v>
+        <v>73997</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>76117</v>
+        <v>77062</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>84731</v>
+        <v>86368</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8854</v>
+        <v>8914</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9545</v>
+        <v>9626</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13374</v>
+        <v>12817</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15446</v>
+        <v>15545</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19898</v>
+        <v>20034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23141</v>
+        <v>22132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23844</v>
+        <v>23761</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24566</v>
+        <v>24294</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>32502</v>
+        <v>32942</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>37667</v>
+        <v>36865</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41763</v>
+        <v>41340</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45406</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25277</v>
+        <v>24838</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26455</v>
+        <v>27275</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31343</v>
+        <v>31949</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33814</v>
+        <v>34213</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41383</v>
+        <v>41230</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>48087</v>
+        <v>46168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47046</v>
+        <v>45740</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45075</v>
+        <v>44634</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58695</v>
+        <v>60255</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>67730</v>
+        <v>66413</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>71757</v>
+        <v>70443</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>72096</v>
+        <v>71399</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13770</v>
+        <v>14060</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36658</v>
+        <v>36496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22713</v>
+        <v>22450</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26602</v>
+        <v>25294</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9443</v>
+        <v>10067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14926</v>
+        <v>14384</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9132</v>
+        <v>9130</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11395</v>
+        <v>11292</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27901</v>
+        <v>26292</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57523</v>
+        <v>56576</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>35421</v>
+        <v>35292</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>41923</v>
+        <v>42533</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31352</v>
+        <v>32279</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66603</v>
+        <v>65613</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46202</v>
+        <v>45531</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51862</v>
+        <v>49117</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25131</v>
+        <v>26345</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32896</v>
+        <v>33175</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25683</v>
+        <v>26665</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28418</v>
+        <v>28831</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51876</v>
+        <v>51215</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93003</v>
+        <v>91610</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>62564</v>
+        <v>63880</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71819</v>
+        <v>71264</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44273</v>
+        <v>43502</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>58531</v>
+        <v>58075</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41575</v>
+        <v>41160</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>48851</v>
+        <v>47981</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49164</v>
+        <v>49467</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65213</v>
+        <v>66306</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>60742</v>
+        <v>61317</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>47876</v>
+        <v>47234</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>98150</v>
+        <v>100000</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>130725</v>
+        <v>132565</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>106961</v>
+        <v>110102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>104531</v>
+        <v>103384</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73772</v>
+        <v>72851</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>91809</v>
+        <v>90826</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>69811</v>
+        <v>71125</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82101</v>
+        <v>82951</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>79655</v>
+        <v>78085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>98472</v>
+        <v>101388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>95351</v>
+        <v>95241</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>74702</v>
+        <v>74225</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>141017</v>
+        <v>141921</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>180895</v>
+        <v>181071</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>154812</v>
+        <v>157807</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>145557</v>
+        <v>145072</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9337</v>
+        <v>9445</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26044</v>
+        <v>27512</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14286</v>
+        <v>14736</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33357</v>
+        <v>33128</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28371</v>
+        <v>29369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>63270</v>
+        <v>63206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34262</v>
+        <v>34654</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>37252</v>
+        <v>35727</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>42052</v>
+        <v>42140</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>96109</v>
+        <v>97474</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>52911</v>
+        <v>53983</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>76178</v>
+        <v>74562</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23538</v>
+        <v>24246</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>51599</v>
+        <v>54213</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33104</v>
+        <v>33547</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>57883</v>
+        <v>57879</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>55980</v>
+        <v>54273</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98911</v>
+        <v>97941</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>60677</v>
+        <v>62305</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>63183</v>
+        <v>60863</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>71260</v>
+        <v>73745</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>138716</v>
+        <v>140628</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>88436</v>
+        <v>88352</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>111786</v>
+        <v>108833</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3908</v>
+        <v>3904</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4137</v>
+        <v>4681</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>63235</v>
+        <v>64763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>68732</v>
+        <v>68256</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>51259</v>
+        <v>51594</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>34133</v>
+        <v>33451</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>67521</v>
+        <v>66653</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>76028</v>
+        <v>75017</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>59637</v>
+        <v>60137</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>36807</v>
+        <v>36642</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12471</v>
+        <v>11716</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14712</v>
+        <v>14216</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16505</v>
+        <v>17163</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10511</v>
+        <v>11533</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>96912</v>
+        <v>97383</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>104028</v>
+        <v>103941</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>85114</v>
+        <v>84793</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>58975</v>
+        <v>58743</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>102252</v>
+        <v>102390</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>110986</v>
+        <v>111754</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>94663</v>
+        <v>97550</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>63080</v>
+        <v>63847</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>113927</v>
+        <v>114447</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>181838</v>
+        <v>179333</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>140522</v>
+        <v>140772</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>178545</v>
+        <v>176430</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>220466</v>
+        <v>219586</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>301886</v>
+        <v>299529</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>242322</v>
+        <v>243805</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>212731</v>
+        <v>212943</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>347077</v>
+        <v>348945</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>496460</v>
+        <v>498296</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>397973</v>
+        <v>394279</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>403819</v>
+        <v>400659</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>161030</v>
+        <v>160129</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>237591</v>
+        <v>238054</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>191209</v>
+        <v>191633</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>234070</v>
+        <v>237387</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>281026</v>
+        <v>276911</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>377167</v>
+        <v>373825</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>307676</v>
+        <v>309650</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>266191</v>
+        <v>269298</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>421288</v>
+        <v>426251</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>589316</v>
+        <v>588777</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>477282</v>
+        <v>482787</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>481317</v>
+        <v>483851</v>
       </c>
     </row>
     <row r="32">
